--- a/biology/Botanique/Oxalidaceae/Oxalidaceae.xlsx
+++ b/biology/Botanique/Oxalidaceae/Oxalidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Oxalidaceae (Oxalidacées) regroupe des plantes dicotylédones ; elle comprend 875 espèces réparties en 3 genres :
 Oxalis, le seul qui soit représenté en France métropolitaine,
@@ -519,9 +531,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Oxalis, du grec οξαλις / oxalis, pour nommer une plante ayant une saveur acidulée, peut-être de l'oseille Rumex (Polygonaceae)[1], également riche en acide oxalique mais sans rapport avec l'Oxalis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Oxalis, du grec οξαλις / oxalis, pour nommer une plante ayant une saveur acidulée, peut-être de l'oseille Rumex (Polygonaceae), également riche en acide oxalique mais sans rapport avec l'Oxalis.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[3], la classification phylogénétique APG II (2003)[4] et la classification phylogénétique APG III (2009)[5] placent cette famille dans l'ordre des Oxalidales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998), la classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) placent cette famille dans l'ordre des Oxalidales.
 </t>
         </is>
       </c>
@@ -581,19 +597,21 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 mai 2010)[6] et Plants of the World online (POWO)                (07 janv 2024)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 mai 2010) et Plants of the World online (POWO)                (07 janv 2024) :
 genre Averrhoa
 genre Biophytum
 genre Dapania (es)
 genre Oxalis
 genre Sarcotheca (en)
-Selon DELTA Angio           (14 mai 2010)[8] :
+Selon DELTA Angio           (14 mai 2010) :
 genre Biophytum
 genre Eichleria (es)
 genre Oxalis
-Selon ITIS      (14 mai 2010)[9] :
+Selon ITIS      (14 mai 2010) :
 genre Averrhoa L.
 genre Biophytum DC.
 genre Oxalis L.</t>
